--- a/univ_L1L2_grouped_univariate.xlsx
+++ b/univ_L1L2_grouped_univariate.xlsx
@@ -1,420 +1,399 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msfintl-my.sharepoint.com/personal/krystel_moussally_msf_org/Documents/OneDrive Updated/7_MENA branch/MEMU/WHO_EWI/AMR_ProxyInd/Analysis/R-project/scoping_amr_indicators/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_B89231273C09E39BE486A1F07BDF160D8A9D1B0B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE250050-3EC5-4DDD-A0D4-BE499C986280}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="169">
-  <si>
-    <t>univ_indicatorcategory_l1</t>
-  </si>
-  <si>
-    <t>univ_indicatorcategory_l2</t>
-  </si>
-  <si>
-    <t>n_predictors</t>
-  </si>
-  <si>
-    <t>predictors</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+  <si>
+    <t xml:space="preserve">univ_indicatorcategory_l1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">univ_indicatorcategory_l2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_predictors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predictors</t>
   </si>
   <si>
     <t xml:space="preserve"> Hospital/care setting characteristics</t>
   </si>
   <si>
-    <t>Admission &amp; ward characteristics</t>
-  </si>
-  <si>
-    <t>Admitting service | Admitting service - ICU | Admitting service - Surgical | Emergency room | Haematology department stay (days) | Internal medicine | Medical facility utilization -  outpatient department (OPD) for chemotherapy | Paediatric wards | Site of infection - Hematology-oncology</t>
-  </si>
-  <si>
-    <t>Hospital-level characteristics</t>
-  </si>
-  <si>
-    <t>Hospital code - 3</t>
-  </si>
-  <si>
-    <t>Antibiotic exposure</t>
-  </si>
-  <si>
-    <t>In-hospital antibiotic exposure, non specific</t>
-  </si>
-  <si>
-    <t>Antibiotic use before culture  (current hospital use) - yes | Antibiotic use prior to bacteremia - during hospitalization | Current antibiotic use - at least one administration of antibiotics during the 24 h preceding the collection of blood specimens | ESBL - Use of prophylactic ciprofloxacin</t>
-  </si>
-  <si>
-    <t>In-hospital antibiotic exposure, specific</t>
-  </si>
-  <si>
-    <t>Empirical anti-infection treatment - carbapenems  - CRKP | Empirical anti-infection treatment - cephalosporins | Empirical anti-infection treatment - fluoroquinolones  - CRKP | Empirical anti-infection treatment - tigecycline  - CRKP</t>
-  </si>
-  <si>
-    <t>Prior antibiotic exposure, non specific</t>
-  </si>
-  <si>
-    <t>&gt;=4 antibiotics used prior to bacteremia | Antibiotic exposure for &gt;3 days within 3 months | Antibiotic usage in previous 2 months -yes | Antibiotic usage preceding 2 months | Antibiotic use in previous 14 days | Antibiotic use prior to bacteremia | Antibiotic use prior to bacteremia - prior to hospitalization | Antibiotic use with at least three courses in the previous year | Antibiotics application before K.pn infection - Using more than 2 antibiotics Yes | Antibiotics in 30 days prior to enrolment | Antimicrobial agents administrated before blood culture | Antimicrobial parameters - admitted on antibiotics | Antimicrobial parameters - Received antibiotics in the past 3 mo | Antimicrobial parameters - Received antibiotics in the past 3 mo - other antibiotic | Any antibiotic exposure prior to positive blood culture | Comorbidities - Recent antibiotic use | Exposure to 2 or more selective antibiotics/antibiotic classes in the preceding 12 months (all) | Exposure to antibiotics within the past 15 days | History of antibiotics use - Within the previous 1 month | History of antibiotics use - Within the previous 2 months | History of antibiotics use - Within the previous 3 months | History of antibiotics use - Within the previous 6 months | Median (range) no. of prior antibiotics | Number of prior antibiotics - 1 | Number of prior antibiotics - 2 | Number of prior antibiotics - 3 or more | Previous antibiotic duration | Previous antibiotic exposure | Previous antibiotic exposure - 90 days before blood culture | Previous antibiotic therapy (&lt;90 days) | Previous antibiotic use within 30 days - Any antibiotics | Previous antibiotic use: last 4 weeks | Previous antibiotics usage - broad-spectrum antibiotics | Previous antibiotics usage in the last 30 days | Previous antimicrobial therapy (6 months) | Prior antibiotic exposure - Duration of antibiotic therapy | Prior antibiotic therapy | Prior antimicrobial exposures | Prior antimicrobial treatment within 14-day before the onset of bacteremia | Prior other antibiotics exposure | Prior use of antibiotics | Recent antibiotic exposure (&lt;6 months) - Total days of antibiotics (combined) | Underlying condition - Prior antibiotic therapy</t>
-  </si>
-  <si>
-    <t>Prior antibiotic exposure, specific choice</t>
-  </si>
-  <si>
-    <t>Ampicillin R  - Aminoglycoside prior use (â‰¥48 hours during the month before bacteremia) | Ampicillin R  - Previous antibiotic therapy (â‰¥48 hours during the month before bacteremia) | Antibiotic exposure for &gt;3 days within 3 months -  colimycin | Antibiotic exposure for &gt;3 days within 3 months -  penicillin | Antibiotic exposure for &gt;3 days within 3 months - baktar | Antibiotic exposure for &gt;3 days within 3 months - carbapenem | Antibiotic exposure for &gt;3 days within 3 months - fluoroquinolones | Antibiotic exposure for &gt;3 days within 3 months  - glycopeptide | Antibiotic exposure within 3 months - cephalosporin | Antibiotic therapy &gt;=7 days within 6 months - Carbapenem | Antibiotic therapy &gt;=7 days within 6 months - piperacillin-tazobactam | Antibiotic Tx before KP isolation - B-lactam/lactamase combinations | Antibiotic Tx before KP isolation - carbapenems | Antibiotic Tx before KP isolation - glycopeptides | Antibiotic Tx before KP isolation - quinolones | Antibiotic use in prior 3 months - Anti-pseudomonal lactams | Antibiotic use in prior 3 months -Carbapenems | Antibiotic use with beta-lactam in previous 14 days | Antibiotic use with carbapenem in previous 28 days | Antibiotic use with carbapenem in previous 84 days | Antibiotics application before K.pn infection - Carbapenems Yes | Antibiotics in 30 days prior to enrolment - Carbapenem | Antibiotics in 30 days prior to enrolment - Cefepime | Antibiotics in 30 days prior to enrolment - ceftriaxone | Antibiotics use within the previous 6 months - b-lactam/b-lactamase inhibitor | Antibiotics use within the previous 6 months - Cephalosporin | Antibiotics use within the previous 6 months - fluoroquinolones | Antimicrobial exposure within 30 days - BLICs | Antimicrobial exposure within 30 days - Cephalosporin | Antimicrobial parameters - Received antibiotics in the past 3 mo - B-lactams | Antimicrobial parameters - Received antibiotics in the past 3 mo - fluoroquinolones | Beta-lactam or fluoroquinolone treatment - â‰¤ 30 day (with 1 course â‰¤ 90 day) | Beta-lactam or fluoroquinolone treatment - â‰¤ 30 day (with â‰¥ 2 courses â‰¤ 90 day) | Carbapenem administration history | Carbapenem treatment three months previously | Cephalosporin exposure in the last 12 months pre-BSI | Exposure history - cephems | Exposure history - nitroimidazoles | Fluoroquinolones prophylaxis | Healthcare-associated factors - Antibiotic use
+    <t xml:space="preserve">Admission &amp; ward characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admitting service | Admitting service - ICU | Admitting service - Surgical | Emergency room | Haematology department stay (days) | Internal medicine | Medical facility utilization -  outpatient department (OPD) for chemotherapy | Paediatric wards | Site of infection - Hematology-oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital-level characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital code - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibiotic exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In-hospital antibiotic exposure, non specific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibiotic use before culture  (current hospital use) - yes | Antibiotic use prior to bacteremia - during hospitalization | Current antibiotic use - at least one administration of antibiotics during the 24 h preceding the collection of blood specimens | ESBL - Use of prophylactic ciprofloxacin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In-hospital antibiotic exposure, specific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical anti-infection treatment - carbapenems  - CRKP | Empirical anti-infection treatment - cephalosporins | Empirical anti-infection treatment - fluoroquinolones  - CRKP | Empirical anti-infection treatment - tigecycline  - CRKP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior antibiotic exposure, non specific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=4 antibiotics used prior to bacteremia | Antibiotic exposure for &gt;3 days within 3 months | Antibiotic usage in previous 2 months -yes | Antibiotic usage preceding 2 months | Antibiotic use in previous 14 days | Antibiotic use prior to bacteremia | Antibiotic use prior to bacteremia - prior to hospitalization | Antibiotic use with at least three courses in the previous year | Antibiotics application before K.pn infection - Using more than 2 antibiotics Yes | Antibiotics in 30 days prior to enrolment | Antimicrobial agents administrated before blood culture | Antimicrobial parameters - admitted on antibiotics | Antimicrobial parameters - Received antibiotics in the past 3 mo | Antimicrobial parameters - Received antibiotics in the past 3 mo - other antibiotic | Any antibiotic exposure prior to positive blood culture | Comorbidities - Recent antibiotic use | Exposure to 2 or more selective antibiotics/antibiotic classes in the preceding 12 months (all) | Exposure to antibiotics within the past 15 days | History of antibiotics use - Within the previous 1 month | History of antibiotics use - Within the previous 2 months | History of antibiotics use - Within the previous 3 months | History of antibiotics use - Within the previous 6 months | Median (range) no. of prior antibiotics | Number of prior antibiotics - 1 | Number of prior antibiotics - 2 | Number of prior antibiotics - 3 or more | Previous antibiotic duration | Previous antibiotic exposure | Previous antibiotic exposure - 90 days before blood culture | Previous antibiotic therapy (&lt;90 days) | Previous antibiotic use within 30 days - Any antibiotics | Previous antibiotic use: last 4 weeks | Previous antibiotics usage - broad-spectrum antibiotics | Previous antibiotics usage in the last 30 days | Previous antimicrobial therapy (6 months) | Prior antibiotic exposure - Duration of antibiotic therapy | Prior antibiotic therapy | Prior antimicrobial exposures | Prior antimicrobial treatment within 14-day before the onset of bacteremia | Prior other antibiotics exposure | Prior use of antibiotics | Recent antibiotic exposure (&lt;6 months) - Total days of antibiotics (combined) | Underlying condition - Prior antibiotic therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior antibiotic exposure, specific choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampicillin R  - Aminoglycoside prior use (â‰¥48 hours during the month before bacteremia) | Ampicillin R  - Previous antibiotic therapy (â‰¥48 hours during the month before bacteremia) | Antibiotic exposure for &gt;3 days within 3 months -  colimycin | Antibiotic exposure for &gt;3 days within 3 months -  penicillin | Antibiotic exposure for &gt;3 days within 3 months - baktar | Antibiotic exposure for &gt;3 days within 3 months - carbapenem | Antibiotic exposure for &gt;3 days within 3 months - fluoroquinolones | Antibiotic exposure for &gt;3 days within 3 months  - glycopeptide | Antibiotic exposure within 3 months - cephalosporin | Antibiotic therapy &gt;=7 days within 6 months - Carbapenem | Antibiotic therapy &gt;=7 days within 6 months - piperacillin-tazobactam | Antibiotic Tx before KP isolation - B-lactam/lactamase combinations | Antibiotic Tx before KP isolation - carbapenems | Antibiotic Tx before KP isolation - glycopeptides | Antibiotic Tx before KP isolation - quinolones | Antibiotic use in prior 3 months - Anti-pseudomonal lactams | Antibiotic use in prior 3 months -Carbapenems | Antibiotic use with beta-lactam in previous 14 days | Antibiotic use with carbapenem in previous 28 days | Antibiotic use with carbapenem in previous 84 days | Antibiotics application before K.pn infection - Carbapenems Yes | Antibiotics in 30 days prior to enrolment - Carbapenem | Antibiotics in 30 days prior to enrolment - Cefepime | Antibiotics in 30 days prior to enrolment - ceftriaxone | Antibiotics use within the previous 6 months - b-lactam/b-lactamase inhibitor | Antibiotics use within the previous 6 months - Cephalosporin | Antibiotics use within the previous 6 months - fluoroquinolones | Antimicrobial exposure within 30 days - BLICs | Antimicrobial exposure within 30 days - Cephalosporin | Antimicrobial parameters - Received antibiotics in the past 3 mo - B-lactams | Antimicrobial parameters - Received antibiotics in the past 3 mo - fluoroquinolones | Beta-lactam or fluoroquinolone treatment - â‰¤ 30 day (with 1 course â‰¤ 90 day) | Beta-lactam or fluoroquinolone treatment - â‰¤ 30 day (with â‰¥ 2 courses â‰¤ 90 day) | Carbapenem administration history | Carbapenem treatment three months previously | Cephalosporin exposure in the last 12 months pre-BSI | Exposure history - cephems | Exposure history - nitroimidazoles | Fluoroquinolones prophylaxis | Healthcare-associated factors - Antibiotic use
 with carbapenem
 in previous 14
 days | History of 3rd generation cephalosporins | History of ahminoglycosides | History of Beta-lactam/Beta-lactamase inhibitor | History of Carbapenem | No. of prior courses of BL/FQ - Within 90 days of bloodstream infection - &gt;=2 | No. of prior courses of BL/FQ - Within 90 days of bloodstream infection - 1 | Previous antibiotic exposure - Antianaerobic antibioticsa (metronidazole) | Previous antibiotic exposure - Carbapenem | Previous antibiotic exposure - Third-generation cephalosporin | Previous antibiotic exposure - Vancomycin or teicoplanin | Previous antibiotic therapy with - Aminoglycosides | Previous antibiotic therapy with - beta-lactams/Beta-lacatamases inhibitors | Previous antibiotic therapy with - Carbapenems | Previous antibiotic use - Carbapenem | Previous antibiotic use - Cephalosporin | Previous antibiotic use - Fourth generation cephalosporin | Previous antibiotic use within 30 days - Other cephems | Previous antibiotics usage - broad-spectrum cephalosporins | Previous antibiotics usage - Carbapenems | Previous antibiotics usage - fluoroquinolones | Previous antibiotics usage - piperacillin/tazobactam | Previous cephalosporin treatment | Previous cephalosporin use (&lt;90 days) | Previous glycopeptides (&lt;90 days) | Prior aminoglycoside exposure | Prior amoxicillin-clavulanic acid exposure | Prior antibiotic exposure - Aminoglycosides | Prior antibiotic exposure - Carbapenems | Prior antibiotic exposure - Vancomycin | Prior antibiotic treatment â‰¤3 months (duration &gt;24h, except for aminoglycosides for which single doses were also included) - Microbiota impact agent | Prior antibiotics - Carbapenem | Prior antibiotics - Cephalosporin | Prior Antimicrobial Exposures - Prior exposure to carbapenem  (for &gt;48 hours within the last 30 days before the onset of BSI) | Prior Antimicrobial Exposures - Prior exposure to quinolones  (for &gt;48 hours within the last 30 days before the onset of BSI) | Prior antimicrobial treatment  within 14-day before the onset of bacteremia - colistin | Prior antimicrobial treatment within 14-day before the onset of bacteremia - carbapenems | Prior antimicrobial treatment within 14-day before the onset of bacteremia - glycopeptides | Prior carbapenem exposure | Prior ceftazidime exposure | Prior fluoroquinolone exposure | Prior fluoroquinolone use within the past 15 days | Prior glycopeptides exposure | Prior linezolid exposure | Prior non-antipseudomonal cephalosporins | Prior tigecycline exposure | Prior use of antimicrobials (30 days to 3 days prior to culture) - Ampicillin-sulbactam | Prior use of antimicrobials (30 days to 3 days prior to culture) - Cefepime | Prior use of antimicrobials (30 days to 3 days prior to culture) - Gentamicin | Prior use of antimicrobials (30 days to 3 days prior to culture) - Linezolid | Prior use of antimicrobials (30 days to 3 days prior to culture) - Meropenem | Prior use of antimicrobials (30 days to 3 days prior to culture) - Piperacillin-tazobactam | Quinolones-Ciprofloxacin | Quinolones-Levofloxacin | Recent antibiotic exposure (&lt;6 months) - Days of aminoglycoside therapy | Recent antibiotic exposure (&lt;6 months) - Days of carbapenem therapy | Recent antibiotic exposure (&lt;6 months) - Days of extended-spectrum penicillin therapy | Recent antibiotic exposure (&lt;6 months) - Days of third- and fourth-generation cephalosporin therapy | Selective antibiotic exposure in the preceding 12 months - 3rd generation cephalosporin (IV) (all) | Selective antibiotic exposure in the preceding 12 months - Aminoglycosides (IV) (all) | Selective antibiotic exposure in the preceding 12 months - Carbapenems (IV) (all) | Selective antibiotic exposure in the preceding 12 months - Fluoroquinolones (IV or oral) (all) | Selective antibiotic exposure in the preceding 12 months - Piperacillin-tazobactam (IV) (all) | Type of antibiotic prior to bacteremia - Beta-lactams | Type of antibiotic prior to bacteremia - Carbapenems | Type of antibiotic prior to bacteremia - Quinolone | Type of antibiotic prior to bacteremia - Vancomycin | Type of antibiotic prior to bacteremia -Aminoglycosides | Use of antibiotics 60 days prior to isolation - Quinolones | Use of antibiotics within 30 days prior to BSI - Cephalosporin | VRE  - prior use of penicillins (â‰¥48 hours during the month before bacteremia)</t>
   </si>
   <si>
-    <t>Biomedical results</t>
-  </si>
-  <si>
-    <t>Biomarker positive</t>
-  </si>
-  <si>
-    <t>C-reactive protein level, mg/L</t>
-  </si>
-  <si>
-    <t>Hematology markers</t>
-  </si>
-  <si>
-    <t>Laboratory finding - Band percentage â‰¥5% | Medical history - Neutropenia | Neutropenia | Neutropenia (&gt;=14 days) | Neutropenia (ANC&lt;100/mm3) | Neutropenia &lt;100/mm3 | Neutropenia &gt;10 days | Outcome - Neutropenia | Platelet count, /nL | Previous neutropenia</t>
-  </si>
-  <si>
-    <t>Liver markers</t>
-  </si>
-  <si>
-    <t>Albumin | Concomitant diseases - Hypoalbuminemia Yes | Hypoalbuminemia  - CRKP | Total bilirubin</t>
-  </si>
-  <si>
-    <t>Metabolic markers</t>
-  </si>
-  <si>
-    <t>HCO3</t>
-  </si>
-  <si>
-    <t>Clinical presentation</t>
-  </si>
-  <si>
-    <t>Clinical presentation, other than infection site</t>
-  </si>
-  <si>
-    <t>Admission Diagnosis - Infections and allergic diseases | Admission Diagnosis - Trauma | Clinical characteristic - Fever Yes | Infectious disease as an admission diagnosis | Temperature &gt;= 38 degrees (all)</t>
-  </si>
-  <si>
-    <t>Clinical severity score</t>
-  </si>
-  <si>
-    <t>28 day mortality rate - Severe: SOFA score &gt; = 10 | Apache II score | APACHE II score | Appropriateness of empiric antibiotics: Severe: SOFA score &gt; = 10 | Elevated pSOFA score â‰¥2 | Median range of APACHE II score | Pitt Bacteraemia score | Pitt bacteremia score   - CRKP | Pneumonia severity index (PSI) | qSOFA score - Score &gt;2 | SOFA score - 4-5 | SOFA socre - &gt;= 6</t>
-  </si>
-  <si>
-    <t>Clinical severity, infection site</t>
-  </si>
-  <si>
-    <t>A-a DO2 | Clinical manifestation - Shock | Clinical severity - Sepsis | Comorbid conditions - Admitted in rapidly fatal condition | ESBL - Septic shock | Late-onset sepsis (LOS) | Number of organ failure - 4-5 | Present illness parameters - shock or multi-organ failire (MOF) at ER | Shock | Shock upon presentation</t>
-  </si>
-  <si>
-    <t>Comorbidities</t>
-  </si>
-  <si>
-    <t>Autoimmune/ rheumatologic/ collective tissue disease</t>
-  </si>
-  <si>
-    <t>Underlying diseases - Rheumatic diseases</t>
-  </si>
-  <si>
-    <t>Cancer/hematologic malignancy</t>
-  </si>
-  <si>
-    <t>Admission Diagnosis - Malignancy | Comorbid conditions-Cancer (solid tumour) | Comorbid conditions-haematological malignancy | GN MDR - Neuroblastoma | Hematological cancer | Hematological malignancy - Multiple myeloma | Hematological malignancy -Acute myeloid leukemia/ myelodysplastic syndrome | Malignancy | Medical history - Haematologic malignancy | Metastatic cancer | Solid cancer | Solid organ cancer | Underlying condition - Solid tumours | Underlying disease -   Lymphoma or multiple myeloma | Underlying disease -  Metastatic tumor | Underlying disease - Hematologic malignancies | Underlying disease - Leukemia | Underlying disease - Malignancy | Underlying diseases - haematological malignancies | Underlying diseases - malignant tumors | Underlying diseases - Solid cancer | VRE - Underlying hematologic diseases - acute lymphoblastic leukemia (ALL) | VRE - Underlying hematologic diseases - acute myeloid leukemia (AML)</t>
-  </si>
-  <si>
-    <t>Cardiovascular &amp; cerebrovascular disease</t>
-  </si>
-  <si>
-    <t>Admission Diagnosis - Cardiovascular diseases | Background parameters - Congestive heart failure | Background parameters - Myocardial infarction | Background parameters - Peripheral vascular disease | Comorbidities - Cardiovascular disease | Comorbidities - Cerebrovascular disease | Comorbidities - Congestive heart failure | Congestive heart failure  - CRKP | Hx of stroke | Hypotension  - CRKP | Peripheral vascular disease | Underlying chronic disease - Cardiac disease | Underlying condition - Cerebrovascular disease | Underlying condition - Ischemic heart disease | Underlying condition - Peripheral vascular disease | Underlying disease - Peripheral vascular disease</t>
-  </si>
-  <si>
-    <t>Comorbidity score</t>
-  </si>
-  <si>
-    <t>Charlson comorbidity index â‰¥2 | Charlson comorbidity index score - CRKP | High Charlson score</t>
-  </si>
-  <si>
-    <t>Immunosuppression/ immunocompromised state</t>
-  </si>
-  <si>
-    <t>Comorbidities - immunosuppression | GP MDR - Intensity of treatment (ITR-3 level 4, most intensive treatment) | HIV-infection | Immunosuppression | Immunosuppressive therapy for &gt;30 days (all) | Previous corticosteroid use | Previous immunosuppressive therapy (&lt; 90 days)</t>
-  </si>
-  <si>
-    <t>Kidney/ renal disease</t>
-  </si>
-  <si>
-    <t>Admission Diagnosis - Chronic nephrosis | Background parameters - Chronic renal disease | Chronic kidney disease | Chronic renal failure | Comorbid conditions-Chronic renal failure | Comorbid conditions - Chronic renal failure | Comorbidities - Chronic kidney failure | Underlying chronic condition - Renal disease | Underlying condition - Chronic kidney disease | Underlying disease - chronic renal failure | Underlying diseases - renal disease</t>
-  </si>
-  <si>
-    <t>Liver/ Gastrointestinal/ biliary disease</t>
-  </si>
-  <si>
-    <t>Admission Diagnosis - Digestive diseases | Cirrhosis | Comorbid conditions-Chronic liver disease | Congenital anomalies - Gastrointestinal | Gastrointestinal disease | Underlying diseases - hepatic disease | Underlying diseases - Liver disease | Underlying diseases -Pancreatobiliary disease</t>
-  </si>
-  <si>
-    <t>Metabolic/endocrine</t>
-  </si>
-  <si>
-    <t>Coexisting diseases - Diabetes mellitus | Diabetes | Diabetes Mellitus | Pre-existing medical conditions - Diabetes | Underlying condition - Diabetes end organ damage | Underlying disease - Diabetes mellitus</t>
-  </si>
-  <si>
-    <t>Neurologic/ cognitive/ functional status</t>
-  </si>
-  <si>
-    <t>Admission Diagnosis - Neurological diseases | Background parameters - Chronic neurological disease | Background parameters - Dimentia | Background parameters - Hemiplegia | Background parameters - independent functional status (based on Katz criteria) | Bedridden | Present illness parameters - Reduced consciousness at admission | Underlying condition - Bed ridden | Underlying condition - Dementia</t>
-  </si>
-  <si>
-    <t>Other chronic condition</t>
-  </si>
-  <si>
-    <t>Background parameters -chronic skin ulcers | Chronic decubitus ulcers | Ultimately or rapidly fatal underlying disease | Underlying chronic illness other than HIV infection (all) | Underlying condition - Pressure sore</t>
-  </si>
-  <si>
-    <t>Respiratory disease</t>
-  </si>
-  <si>
-    <t>Admission Diagnosis - Respiratory diseases | Concomitant diseases - Respiratory failure Yes | History of chronic obstructive pulmonary disease (COPD) | Preexisting medical conditions - Structural lung disease | Underlying condition - Chronic pulmonary disease</t>
-  </si>
-  <si>
-    <t>Underweight/malnutrition</t>
-  </si>
-  <si>
-    <t>Moderate or severe underweight for age</t>
-  </si>
-  <si>
-    <t>Urologic disease</t>
-  </si>
-  <si>
-    <t>Obstructive urinary tract disease | Pre-existing medical conditions - Urinary tract obstructive disease | Underlying disease - Genitourinary</t>
-  </si>
-  <si>
-    <t>Demographics</t>
-  </si>
-  <si>
-    <t>Ethnicity</t>
-  </si>
-  <si>
-    <t>Caucasian | Race - Asian | Race/ethnicity - Asian | Race/ethnicity - Black | Race/Ethnicity - Black | Race/Ethnicity - Hispanic | Race/ethnicity - Middle Eastern | Race/Ethnicity - White, non-Hispanic</t>
-  </si>
-  <si>
-    <t>Older age (cutoffs &gt;/= 60 years)</t>
-  </si>
-  <si>
-    <t>Adults &gt;65 years old | Age &gt;65 years | Age category - &gt;= 80 | Age category - 60-69 | Age category - 70-79 | Age of &gt;60 yr</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Female | Gender - Male | Male | Male gender | Male sex | Sex - Male</t>
-  </si>
-  <si>
-    <t>Young age (cutoffs &lt;/= 5 years)</t>
-  </si>
-  <si>
-    <t>Children | Neonates and infants</t>
-  </si>
-  <si>
-    <t>Economic/resources use</t>
-  </si>
-  <si>
-    <t>Cost, excess time of staff</t>
-  </si>
-  <si>
-    <t>Mean extra staff time (minutes) used due to AMR - K pneumoniae infected patients | Mean extra staff time (minutes) used due to AMR - Overall | Mean extra staff time (minutes) used due to AMR - S aureus infected patients</t>
-  </si>
-  <si>
-    <t>Healthcare exposure</t>
-  </si>
-  <si>
-    <t>Community-acquired</t>
-  </si>
-  <si>
-    <t>Infection type - Community-aquired | Non-â€œtrueâ€ community-acquired bacteremia | Type of infection - community-acquired | Types of infection acquisition - Community-acquired</t>
-  </si>
-  <si>
-    <t>Healthcare associated, other than hospital-acquired or non specified if hospital</t>
-  </si>
-  <si>
-    <t>Acquisition of infection-Health-care related | Background parameters - Health care-associated acquisition of pathogen | Current condition - healthcare associated | Currently resident in an intermediate level health care facility (all) | Healthcare-associated | Place of bacteremia acquisition - Referent institution | Place where bacteremia was acquired - referring institution</t>
-  </si>
-  <si>
-    <t>Hospital-acquired</t>
-  </si>
-  <si>
-    <t>Acquisition of infection -Hospital-acquired (&lt; = 5 days) | Acquisition of infection  - Hospital acquired (&gt;5 days) | Antibiotics administration within 30 days/Nosocomial infection - Antibiotics (+) (presence)  and/or nosocomial (+) (presence) | Comorbid conditions - Positive A. baumannii blood culture after 72 h of admission | Hospital-acquired bacteremia | Hospital-acquired infection | Hospital-associated infection - Yes | In-hospital acquisition - ICU acquisition | Index culture &gt;48h | Infection &gt;48h after admission | Nosocomial infection | Nosocomial origin of the infection | Place of bacteremia acquisition - Index hospital, ICU | Place of bacteremia acquisition - Index hospital, non-ICU | Place of onset of infection - HA | Place where bacteremia was acquired - hospital, in the ICU | Place where bacteremia was acquired - hospital, not ICU | Type of infection - hospital-acquired | Types of infection acquisition - Hospital-acquired</t>
-  </si>
-  <si>
-    <t>Long-term care facility</t>
-  </si>
-  <si>
-    <t>Admitted from nursing home | Background parameters - Long-term-care facility residency | Medical facility utilization - Nursing home/Long-term care facility | Nursing home residency | Nursing home resident | Other high-risk healthcare exposures (&lt;6 months) - Long-term acute care facility residence | Residence in long-term care facilities | Residence into a long-term care facility (LTCF)</t>
-  </si>
-  <si>
-    <t>Prior ICU stay</t>
-  </si>
-  <si>
-    <t>1 week before the onset of BSI - ICU stay | Any ICU admission in past year | Clinical characteristic - Previous ICU stay Yes | Comorbidities - Recent ICU stay | ICU admission prior to having a positive A. baumannii blood culture | Intensive care unit / medium care unit (ICU/MC) preceding 6 months | PICU three months previously | Pretransplant ICU stay | Prior ICU stay | Prior PICU admission | Risk factors - ICU stay during the onset of bacteremia | Site of infection - PICU</t>
-  </si>
-  <si>
-    <t>Prior hospitalisation</t>
-  </si>
-  <si>
-    <t>Background parameters - Hospitalization in the past 3 mo | Comorbidities - Recent hospitalization | GP MDR - Number of hospitalization days in the last 3 months | Healthcare-associated factors - Length of hospital stay in previous 14 days (days)
+    <t xml:space="preserve">Biomedical results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomarker positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-reactive protein level, mg/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hematology markers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratory finding - Band percentage â‰¥5% | Medical history - Neutropenia | Neutropenia | Neutropenia (&gt;=14 days) | Neutropenia (ANC&lt;100/mm3) | Neutropenia &lt;100/mm3 | Neutropenia &gt;10 days | Outcome - Neutropenia | Platelet count, /nL | Previous neutropenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver markers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albumin | Concomitant diseases - Hypoalbuminemia Yes | Hypoalbuminemia  - CRKP | Total bilirubin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolic markers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical presentation, other than infection site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission Diagnosis - Infections and allergic diseases | Admission Diagnosis - Trauma | Clinical characteristic - Fever Yes | Infectious disease as an admission diagnosis | Temperature &gt;= 38 degrees (all)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical severity score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 day mortality rate - Severe: SOFA score &gt; = 10 | Apache II score | APACHE II score | Appropriateness of empiric antibiotics: Severe: SOFA score &gt; = 10 | Elevated pSOFA score â‰¥2 | Median range of APACHE II score | Pitt Bacteraemia score | Pitt bacteremia score   - CRKP | Pneumonia severity index (PSI) | qSOFA score - Score &gt;2 | SOFA score - 4-5 | SOFA socre - &gt;= 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical severity, infection site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-a DO2 | Clinical manifestation - Shock | Clinical severity - Sepsis | Comorbid conditions - Admitted in rapidly fatal condition | ESBL - Septic shock | Late-onset sepsis (LOS) | Number of organ failure - 4-5 | Present illness parameters - shock or multi-organ failire (MOF) at ER | Shock | Shock upon presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comorbidities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoimmune/ rheumatologic/ collective tissue disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underlying diseases - Rheumatic diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer/hematologic malignancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission Diagnosis - Malignancy | Comorbid conditions-Cancer (solid tumour) | Comorbid conditions-haematological malignancy | GN MDR - Neuroblastoma | Hematological cancer | Hematological malignancy - Multiple myeloma | Hematological malignancy -Acute myeloid leukemia/ myelodysplastic syndrome | Malignancy | Medical history - Haematologic malignancy | Metastatic cancer | Solid cancer | Solid organ cancer | Underlying condition - Solid tumours | Underlying disease -   Lymphoma or multiple myeloma | Underlying disease -  Metastatic tumor | Underlying disease - Hematologic malignancies | Underlying disease - Leukemia | Underlying disease - Malignancy | Underlying diseases - haematological malignancies | Underlying diseases - malignant tumors | Underlying diseases - Solid cancer | VRE - Underlying hematologic diseases - acute lymphoblastic leukemia (ALL) | VRE - Underlying hematologic diseases - acute myeloid leukemia (AML)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiovascular &amp; cerebrovascular disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission Diagnosis - Cardiovascular diseases | Background parameters - Congestive heart failure | Background parameters - Myocardial infarction | Background parameters - Peripheral vascular disease | Comorbidities - Cardiovascular disease | Comorbidities - Cerebrovascular disease | Comorbidities - Congestive heart failure | Congestive heart failure  - CRKP | Hx of stroke | Hypotension  - CRKP | Peripheral vascular disease | Underlying chronic disease - Cardiac disease | Underlying condition - Cerebrovascular disease | Underlying condition - Ischemic heart disease | Underlying condition - Peripheral vascular disease | Underlying disease - Peripheral vascular disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comorbidity score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlson comorbidity index â‰¥2 | Charlson comorbidity index score - CRKP | High Charlson score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immunosuppression/ immunocompromised state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comorbidities - immunosuppression | GP MDR - Intensity of treatment (ITR-3 level 4, most intensive treatment) | HIV-infection | Immunosuppression | Immunosuppressive therapy for &gt;30 days (all) | Previous corticosteroid use | Previous immunosuppressive therapy (&lt; 90 days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kidney/ renal disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission Diagnosis - Chronic nephrosis | Background parameters - Chronic renal disease | Chronic kidney disease | Chronic renal failure | Comorbid conditions-Chronic renal failure | Comorbid conditions - Chronic renal failure | Comorbidities - Chronic kidney failure | Underlying chronic condition - Renal disease | Underlying condition - Chronic kidney disease | Underlying disease - chronic renal failure | Underlying diseases - renal disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver/ Gastrointestinal/ biliary disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission Diagnosis - Digestive diseases | Cirrhosis | Comorbid conditions-Chronic liver disease | Congenital anomalies - Gastrointestinal | Gastrointestinal disease | Underlying diseases - hepatic disease | Underlying diseases - Liver disease | Underlying diseases -Pancreatobiliary disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolic/endocrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coexisting diseases - Diabetes mellitus | Diabetes | Diabetes Mellitus | Pre-existing medical conditions - Diabetes | Underlying condition - Diabetes end organ damage | Underlying disease - Diabetes mellitus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurologic/ cognitive/ functional status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission Diagnosis - Neurological diseases | Background parameters - Chronic neurological disease | Background parameters - Dimentia | Background parameters - Hemiplegia | Background parameters - independent functional status (based on Katz criteria) | Bedridden | Present illness parameters - Reduced consciousness at admission | Underlying condition - Bed ridden | Underlying condition - Dementia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other chronic condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background parameters -chronic skin ulcers | Chronic decubitus ulcers | Ultimately or rapidly fatal underlying disease | Underlying chronic illness other than HIV infection (all) | Underlying condition - Pressure sore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission Diagnosis - Respiratory diseases | Concomitant diseases - Respiratory failure Yes | History of chronic obstructive pulmonary disease (COPD) | Preexisting medical conditions - Structural lung disease | Underlying condition - Chronic pulmonary disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underweight/malnutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate or severe underweight for age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urologic disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obstructive urinary tract disease | Pre-existing medical conditions - Urinary tract obstructive disease | Underlying disease - Genitourinary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demographics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caucasian | Race - Asian | Race/ethnicity - Asian | Race/ethnicity - Black | Race/Ethnicity - Black | Race/Ethnicity - Hispanic | Race/ethnicity - Middle Eastern | Race/Ethnicity - White, non-Hispanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Older age (cutoffs &gt;/= 60 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adults &gt;65 years old | Age &gt;65 years | Age category - &gt;= 80 | Age category - 60-69 | Age category - 70-79 | Age of &gt;60 yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female | Gender - Male | Male | Male gender | Male sex | Sex - Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young age (cutoffs &lt;/= 5 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children | Neonates and infants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economic/resources use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost, excess time of staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean extra staff time (minutes) used due to AMR - K pneumoniae infected patients | Mean extra staff time (minutes) used due to AMR - Overall | Mean extra staff time (minutes) used due to AMR - S aureus infected patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthcare exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community-acquired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infection type - Community-aquired | Non-â€œtrueâ€ community-acquired bacteremia | Type of infection - community-acquired | Types of infection acquisition - Community-acquired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthcare associated, other than hospital-acquired or non specified if hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition of infection-Health-care related | Background parameters - Health care-associated acquisition of pathogen | Current condition - healthcare associated | Currently resident in an intermediate level health care facility (all) | Healthcare-associated | Place of bacteremia acquisition - Referent institution | Place where bacteremia was acquired - referring institution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital-acquired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition of infection -Hospital-acquired (&lt; = 5 days) | Acquisition of infection  - Hospital acquired (&gt;5 days) | Antibiotics administration within 30 days/Nosocomial infection - Antibiotics (+) (presence)  and/or nosocomial (+) (presence) | Comorbid conditions - Positive A. baumannii blood culture after 72 h of admission | Hospital-acquired bacteremia | Hospital-acquired infection | Hospital-associated infection - Yes | In-hospital acquisition - ICU acquisition | Index culture &gt;48h | Infection &gt;48h after admission | Nosocomial infection | Nosocomial origin of the infection | Place of bacteremia acquisition - Index hospital, ICU | Place of bacteremia acquisition - Index hospital, non-ICU | Place of onset of infection - HA | Place where bacteremia was acquired - hospital, in the ICU | Place where bacteremia was acquired - hospital, not ICU | Type of infection - hospital-acquired | Types of infection acquisition - Hospital-acquired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long-term care facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admitted from nursing home | Background parameters - Long-term-care facility residency | Medical facility utilization - Nursing home/Long-term care facility | Nursing home residency | Nursing home resident | Other high-risk healthcare exposures (&lt;6 months) - Long-term acute care facility residence | Residence in long-term care facilities | Residence into a long-term care facility (LTCF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior ICU stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 week before the onset of BSI - ICU stay | Any ICU admission in past year | Clinical characteristic - Previous ICU stay Yes | Comorbidities - Recent ICU stay | ICU admission prior to having a positive A. baumannii blood culture | Intensive care unit / medium care unit (ICU/MC) preceding 6 months | PICU three months previously | Pretransplant ICU stay | Prior ICU stay | Prior PICU admission | Risk factors - ICU stay during the onset of bacteremia | Site of infection - PICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior hospitalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background parameters - Hospitalization in the past 3 mo | Comorbidities - Recent hospitalization | GP MDR - Number of hospitalization days in the last 3 months | Healthcare-associated factors - Length of hospital stay in previous 14 days (days)
  | History of hospital transfers | Hospital stay preceding 6 months | Hospitalization - &gt; 180 day, â‰¤ 1 yr | Hospitalization - &gt; 90 day, â‰¤ 180 day | Hospitalization - â‰¤ 90 day | Hospitalization in preceding 3 months | Hospitalization in the preceding 12 months (all) | Hospitalization in the preceding 28 days (all) | Hospitalization within the past 1 year | Invasive procedure or device - Hospitalization within 3 months | Length of hospital stay before positive specimen collection (days) | Length of hospital stay in previous 14 days (days) | Length of hospital stay in previous 28 days (days) | Length of hospital stay in previous 84 days (days) | Length of hospitalization before the onset of GNR bacteremia 72h | Length of prior hospitalisation (days) | Length of stay before bacteremia (day) | LOS before blood culture (days) | Median (range) duration of hospitalisation prior to having bacteremia; days | Number of days hospitalized before infection | Number of prior admissions - &gt;=15 | Number of prior admissions - 10-14 | Past history - Hospitalization within 3 months | Previous admission | Previous admission in ICU  - CRKP | Previous hospitalization (&gt;2 d in last 3 mo) | Prior admission | Prior healthcare abroad â‰¤6 months | Prior history of admission | Prior hospitalisation within last year | Recent hospitalization - Within 90 days of bloodstream infection | Recent hospitalization (days) - 181-360 | Recent hospitalization (days) - 2-30 | Recent hospitalization (days) - 31-90 | Recent hospitalization (days) - 91-180 | Recent international healthcare exposure (&lt;6 months) - At least 1 overnight stay in a healthcare facility in an ESBL high-burden region | Time in hospital before blood culture collection - days | Total days of hospitalization in the 6 months prior to current hospitalization | Transfer from other hospitals or wards | Underlying condition - Prior admissions &gt; 2</t>
   </si>
   <si>
-    <t>Invasive devices/procedures</t>
-  </si>
-  <si>
-    <t>Airway/respiratory procedures</t>
-  </si>
-  <si>
-    <t>1 week before the onset of BSI - tracheotomy | Clinical characteristic - Mechanical ventilation Yes | Clinical characteristic - Tracheotomy Yes | Clinical characteristics-Mechanical ventilation | Clinical outcomes - Mechanical ventilation at onset | Comorbid conditions - Intubation prior to positive blood culture | Current condition - ventilator use | Endo tube | Endotracheal intubation | Indwelling devices - Endotracheal intubation | Infection source - VAP | Intervention-On ventilator | Invasive procedure - Mechanical ventilation | Invasive procedures - mechanical ventilation | Invasive Procedures - Tracheal intubation | Invasive procedures (before a positive culture) - mechanical ventilation | Mechanical ventilation | Mechanical ventilation prior to BSI | Mechanical ventilation three months previously | Mechanical ventilation use | Mechanical ventilator | On high-frequency oscillatory ventilator | Previous used mechanical ventilation  - CRKP | Requiring mechanical ventilation | Risk factor - Mechanical ventilation | Risk factors - mechanical ventilation | Tracheostomy tube at enrolment</t>
-  </si>
-  <si>
-    <t>Blood transfusion</t>
-  </si>
-  <si>
-    <t>Blood transfusion -  1 month before onset of BSI | Erythrocyte transfusion | Invasive Procedures - History of repeat transfusions</t>
-  </si>
-  <si>
-    <t>Central venous/intravascular access &amp; dialysis</t>
-  </si>
-  <si>
-    <t>Arterial line | Central venous catheter | Central venous catheter three months previously | Central venous device before onset | chronic hemofiltration | Clinical characteristics-Central venous catheter | Clinical characteristics-Dialysis | Clinical characteristics - Central venous catheter (CVC) | Comorbidities - Dialysis | Devices at time of blood collection - Intravascular catheters (central venous catheter, eripherally inserted central catheter (CVC, PICC)) | Dialysis in past year | Double lumen (or perm) | Duration of central venous device (days) | Hemodialysis | History of hemodialysis | Indwelling devices - Central venous catheter | Indwelling hardware at the onset of bacteremia - Chronic vascular hardware | Indwelling intravenous catheter - Implantable port | Intervention-Central venous catheter | Intravascular catheter (presence) | Invasive procedure before- Central venous catherization | Invasive procedures - arteriovenous catheter | Invasive Procedures - Catheter | Invasive Procedures - Central venous catheter | Invasive Procedures - Hemodialysis and plasma exchange | Invasive procedures (before a positive culture) - central venous catheter | Medical facility utilization - Hemodialysis or peritoneal dialysis | Other artificial devices (presence) | Posttransplant dialysis | Presence of central venous catheter unit | Presence of CVC during index culture | Pretransplant dialysis | Previous CVC in situ - yes | Previous presence of intravascular catheter (&lt; 90 days) | Risk factor - Central venous catheter | Risk factors - indwelling central venous line | Underlying disease - Dialysis | Use of central venous catheter | Vascular catheter | Vascular catheter at enrolment</t>
-  </si>
-  <si>
-    <t>Gastrointestinal/biliary tubes &amp; abdominal drains</t>
-  </si>
-  <si>
-    <t>Biliary manipulation | Devices prior to bacteremia during hospitalization - Type of devices - gastrointestinal devices | Drainage tube | Gastrostomy tube at enrolment | Indwelling hardware at the onset of bacteremia - Gastrointestinal feeding tube | Intervention-Nasogastric tube | Invasive devices when admitted to hospital - 
+    <t xml:space="preserve">Invasive devices/procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airway/respiratory procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 week before the onset of BSI - tracheotomy | Clinical characteristic - Mechanical ventilation Yes | Clinical characteristic - Tracheotomy Yes | Clinical characteristics-Mechanical ventilation | Clinical outcomes - Mechanical ventilation at onset | Comorbid conditions - Intubation prior to positive blood culture | Current condition - ventilator use | Endo tube | Endotracheal intubation | Indwelling devices - Endotracheal intubation | Infection source - VAP | Intervention-On ventilator | Invasive procedure - Mechanical ventilation | Invasive procedures - mechanical ventilation | Invasive Procedures - Tracheal intubation | Invasive procedures (before a positive culture) - mechanical ventilation | Mechanical ventilation | Mechanical ventilation prior to BSI | Mechanical ventilation three months previously | Mechanical ventilation use | Mechanical ventilator | On high-frequency oscillatory ventilator | Previous used mechanical ventilation  - CRKP | Requiring mechanical ventilation | Risk factor - Mechanical ventilation | Risk factors - mechanical ventilation | Tracheostomy tube at enrolment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood transfusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood transfusion -  1 month before onset of BSI | Erythrocyte transfusion | Invasive Procedures - History of repeat transfusions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central venous/intravascular access &amp; dialysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arterial line | Central venous catheter | Central venous catheter three months previously | Central venous device before onset | chronic hemofiltration | Clinical characteristics-Central venous catheter | Clinical characteristics-Dialysis | Clinical characteristics - Central venous catheter (CVC) | Comorbidities - Dialysis | Devices at time of blood collection - Intravascular catheters (central venous catheter, eripherally inserted central catheter (CVC, PICC)) | Dialysis in past year | Double lumen (or perm) | Duration of central venous device (days) | Hemodialysis | History of hemodialysis | Indwelling devices - Central venous catheter | Indwelling hardware at the onset of bacteremia - Chronic vascular hardware | Indwelling intravenous catheter - Implantable port | Intervention-Central venous catheter | Intravascular catheter (presence) | Invasive procedure before- Central venous catherization | Invasive procedures - arteriovenous catheter | Invasive Procedures - Catheter | Invasive Procedures - Central venous catheter | Invasive Procedures - Hemodialysis and plasma exchange | Invasive procedures (before a positive culture) - central venous catheter | Medical facility utilization - Hemodialysis or peritoneal dialysis | Other artificial devices (presence) | Posttransplant dialysis | Presence of central venous catheter unit | Presence of CVC during index culture | Pretransplant dialysis | Previous CVC in situ - yes | Previous presence of intravascular catheter (&lt; 90 days) | Risk factor - Central venous catheter | Risk factors - indwelling central venous line | Underlying disease - Dialysis | Use of central venous catheter | Vascular catheter | Vascular catheter at enrolment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastrointestinal/biliary tubes &amp; abdominal drains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biliary manipulation | Devices prior to bacteremia during hospitalization - Type of devices - gastrointestinal devices | Drainage tube | Gastrostomy tube at enrolment | Indwelling hardware at the onset of bacteremia - Gastrointestinal feeding tube | Intervention-Nasogastric tube | Invasive devices when admitted to hospital - 
 Type of devices - gastrointestinal devices | Invasive procedure or device - Gastrointestinal catheterization | Invasive procedures - drainage tube | Invasive Procedures - Gastric tube | Invasive procedures (before a positive culture) - nasogastric tube | Medical device - Nasogastric tube/Gastrostomy | Nasogastric tube | Previous biliary tract manipulation | Prior endoscopy â‰¤30 days | Risk factors - gastrostomy/nasogastric tube | Total parenteral nutrition | Total parenteral nutrition duration before onset (days)</t>
   </si>
   <si>
-    <t>Internal device/implant</t>
-  </si>
-  <si>
-    <t>Background parameters - Chronic permanent invasive devices</t>
-  </si>
-  <si>
-    <t>Invasive devices/procedures, unspecified</t>
-  </si>
-  <si>
-    <t>Catheter/tube | Continuous infusion for &gt;3 days prior to BSI | Devices at time of blood collection | Devices prior to bacteremia during hospitalization | Devices prior to bacteremia during hospitalization - Type of devices - central vascular accesses | Devices prior to bacteremia during hospitalization - Type of devices - respiratory devices | Invasive procedure or devices - Stomach tube catheterization | Invasive procedure within 30 days | Invasive Procedures - Diagnostic punctures | Outpatient intravenous therapy in past year | Overall catheter use | Previous invasive device | Recent outpatient procedure - Within 30 days of bloodstream infection | Total number of invasive procedures</t>
-  </si>
-  <si>
-    <t>Surgery/invasive operation</t>
-  </si>
-  <si>
-    <t>Any surgery in past year | Background parameters - Invasive procedure or surgery in the past yr | Clinical characteristic - Caesarean section Yes | Clinical characteristic - Previous surgery Yes | Comorbidities - Recent surgery or invasive procedure | History of surgery within 6 months | Invasive procedure or device - Surgery within 3 months | Invasive Procedures - Surgery within the past 3 months | Major surgical procedure prior to BSI | Previous surgery | Previous surgery within 30 days | Prior surgery | Prostate biopsy â‰¤30 days | Recent surgery - within 4 weeks before BSI onset | Risk factor - Elective surgery | Surgery | Surgery three months previously</t>
-  </si>
-  <si>
-    <t>Transplant</t>
-  </si>
-  <si>
-    <t>Clinical characteristics-Bone marrow transplantation | Hematopoietic stem cell transplantation - Allogenic | Hematopoietic stem cell transplantation - Autologous | Liver transplant | Preexisting medical condition - Intestinal transplantation | Solid organ transplant | Solid organ transplantation | Stem cell transplantation | Transplant | Underlying chronic disease - Transplantation | Underlying diseases -Transplantation</t>
-  </si>
-  <si>
-    <t>Urinary catheters/urinary procedures</t>
-  </si>
-  <si>
-    <t>Catheter/tube - Urinary catheter | Clinical characteristics - Urinary catheter | Devices at time of blood collection - Urinary devices  (bladder catheter, ureteral stent, pyelostomy) | Devices prior to bacteremia during hospitalization - Type of devices - urinary catheters | Foley catheter | Indwelling hardware at the onset of bacteremia - Nephrostomy tubes and/or Foley catheter | Indwelling mucosal catheter - Urinary catheter | Indwelling urinary catheter | Indwelling urinary catheter at enrolment | Indwelling urinary catheter prior to BSI | Indwelling urinary catheter&gt;24 hours | Indwelling urinary catheterization | Invasive devices when admitted to hospital - 
+    <t xml:space="preserve">Internal device/implant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background parameters - Chronic permanent invasive devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invasive devices/procedures, unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catheter/tube | Continuous infusion for &gt;3 days prior to BSI | Devices at time of blood collection | Devices prior to bacteremia during hospitalization | Devices prior to bacteremia during hospitalization - Type of devices - central vascular accesses | Devices prior to bacteremia during hospitalization - Type of devices - respiratory devices | Invasive procedure or devices - Stomach tube catheterization | Invasive procedure within 30 days | Invasive Procedures - Diagnostic punctures | Outpatient intravenous therapy in past year | Overall catheter use | Previous invasive device | Recent outpatient procedure - Within 30 days of bloodstream infection | Total number of invasive procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgery/invasive operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any surgery in past year | Background parameters - Invasive procedure or surgery in the past yr | Clinical characteristic - Caesarean section Yes | Clinical characteristic - Previous surgery Yes | Comorbidities - Recent surgery or invasive procedure | History of surgery within 6 months | Invasive procedure or device - Surgery within 3 months | Invasive Procedures - Surgery within the past 3 months | Major surgical procedure prior to BSI | Previous surgery | Previous surgery within 30 days | Prior surgery | Prostate biopsy â‰¤30 days | Recent surgery - within 4 weeks before BSI onset | Risk factor - Elective surgery | Surgery | Surgery three months previously</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transplant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical characteristics-Bone marrow transplantation | Hematopoietic stem cell transplantation - Allogenic | Hematopoietic stem cell transplantation - Autologous | Liver transplant | Preexisting medical condition - Intestinal transplantation | Solid organ transplant | Solid organ transplantation | Stem cell transplantation | Transplant | Underlying chronic disease - Transplantation | Underlying diseases -Transplantation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urinary catheters/urinary procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catheter/tube - Urinary catheter | Clinical characteristics - Urinary catheter | Devices at time of blood collection - Urinary devices  (bladder catheter, ureteral stent, pyelostomy) | Devices prior to bacteremia during hospitalization - Type of devices - urinary catheters | Foley catheter | Indwelling hardware at the onset of bacteremia - Nephrostomy tubes and/or Foley catheter | Indwelling mucosal catheter - Urinary catheter | Indwelling urinary catheter | Indwelling urinary catheter at enrolment | Indwelling urinary catheter prior to BSI | Indwelling urinary catheter&gt;24 hours | Indwelling urinary catheterization | Invasive devices when admitted to hospital - 
 Type of devices - urinary catheters | Invasive procedure - Foley catheter | Invasive procedure before- Urinary catheter | Invasive procedure or devices - Urinary catheterization | Invasive procedures - urinary catheter | Medical device - Urinary catheter/Cystostomy | Risk factors - urinary catheterization | Source of infection - Urinary catheter | Underlying condition - Permanent urinary catheter | Urinary catheter | Urinary catheter three months previously | Urinary catheterisation at admission</t>
   </si>
   <si>
-    <t>Microbiological indicators</t>
-  </si>
-  <si>
-    <t>Appropriate antibiotic choice</t>
-  </si>
-  <si>
-    <t>Appropriate antimicrobial therapy - Appropriate therapy administered overal | Appropriate empirical antibiotics | Appropriateness of empiric antibiotics: Overall | Effective empiric therapy in vitro | Outcome parameters - Appropriate therapy administered in &lt;48 h</t>
-  </si>
-  <si>
-    <t>Inappropriate empirical antibiotic treatment</t>
-  </si>
-  <si>
-    <t>Appropriate antimicrobial therapy - â‰¥ 48 h delay to initiation of appropriate therapy | Clinical manifestation - Inappropriate empirical antibiotics | inadequacy of the initial antimicrobial therapy | Inadequate empiric antibiotic therapy | inappropriate antibiotic therapy | inappropriateness of the empirically initiated antibiotics</t>
-  </si>
-  <si>
-    <t>Other microbiology</t>
-  </si>
-  <si>
-    <t>Pathogen - Polymicrobial infection | Polymicrobial BSI</t>
-  </si>
-  <si>
-    <t>Pathogen</t>
-  </si>
-  <si>
-    <t>E. coli | Genospecies 13TU | Genospecies 2 (A. baumannii) | Genospecies 3 | Mean extra staff time (minutes) used due to AMR - E coli infected patient | Number bacterial species isolated &gt;=3 | Pathogen - E. coli | Pseudomonas aeruginosa or Acinetobacter spp. | spa-CC - Other spa-CCs | spa-CC - singletons</t>
-  </si>
-  <si>
-    <t>Resistance profile</t>
-  </si>
-  <si>
-    <t>Aminoglycosides non-susceptible | Amoxicillin/clavulanic acid non-susceptible | Ampicillin R  - Meropenem breakthrough | Antibiotic susceptibility -  Cefuroxime | Antibiotic susceptibility -  Ciprofloxacin | Antibiotic susceptibility -  Gentamicin | Antibiotic susceptibility - Amoxicillin/clavlanate | Antibiotic susceptibility - Ceftazidime | Antibiotic susceptibility - Ceftriaxone | Antibiotic susceptibility - ESBL-Producers | Antibiotic susceptibility - Piperacillin | Antibiotic susceptibility - TMP/STX | Antibiotic susceptibility - Tobramicin | Enterobacteriaceae ESBL status - yes | ESBL - Treatment for underlying diseases - Chemotherapy (remission induction/re-induction) (I/RI) 
- | ESBL - yes | ESBL identification â‰¤ 1 yr | ESBL producers | Fluoroquinolone (FQ) breakthrough - Yes | GN MDR - Breakthrough on a penicillin | Survival  probability over 180 days - patients with resistant infections | Survival time (days) of patients with BSI caused by carbapenem-resistant bacteria | time to discharge (over 60 days) -  patients with resistant infections | VRE - vancomycin breakthrough</t>
-  </si>
-  <si>
-    <t>Neonatal risk</t>
-  </si>
-  <si>
-    <t>Birthweight</t>
-  </si>
-  <si>
-    <t>Birth weight (g) - &lt;1000 | Birthweight (g) - &gt;3000 | Birthweight (g) - 1500-3000</t>
-  </si>
-  <si>
-    <t>Feeding type</t>
-  </si>
-  <si>
-    <t>Time to start enteral feeds (days) | Type of enteral feeds - Exclusive breast milk | Type of enteral feeds - Formula</t>
-  </si>
-  <si>
-    <t>Gestational age</t>
-  </si>
-  <si>
-    <t>Concomitant diseases - Premature Yes | Gestation (weeks) - &gt;36 | Gestation (weeks) - 30-36 | Gestational age (weeks) - &lt;28 | Gestational age (weeks) - 28 to &lt;32 | Prematurity | Preterm</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Admission to NICU | Adults | Age | Age (years) | Age at time of culture (years) | Age category - 40-49 | Age category - 50-59 | Age, year | Aminoglycoside-Tobramycin | Aminoglycosides-Gentamicin | Ampicillin R - Intensity of treatment (higher treatment intensity) | Ampicillin R  - Age above 5 years | Antacid use within 3 months | Antibiotic Exposure - Antifungals | Antibiotic Exposure - Beta-lactam-beta-lactamase inhibitors | Antibiotic Exposure - Carbapenem | Antibiotic Exposure - Cephalosporin | Antibiotic Exposure - Linezolid | Antibiotic Exposure - Vancomycin | Antibiotic Tx before KP isolation - antifungals | Antibiotic use - yes | Antibiotics-Cefazolin | Antibiotics-Cefepime | Antibiotics-Ceftazidime | Antibiotics-Ceftriaxone | Antimicrobial and antifungal agents exposure within 3 mo -  aminoglycosides | Antimicrobial and antifungal agents exposure within 3 mo - carbapenems | Any predisposing condition - yes | Aztreonam | B-lactam/b-lactamase inhibitor - piperacillin-taxobactam | Broad spectrum beta-lactams | Children &gt;5 years | Duration of time from hospital admission to positive
+    <t xml:space="preserve">Microbiological indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appropriate antibiotic choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appropriate antimicrobial therapy - Appropriate therapy administered overal | Appropriate empirical antibiotics | Appropriateness of empiric antibiotics: Overall | Effective empiric therapy in vitro | Outcome parameters - Appropriate therapy administered in &lt;48 h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inappropriate empirical antibiotic treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appropriate antimicrobial therapy - â‰¥ 48 h delay to initiation of appropriate therapy | Clinical manifestation - Inappropriate empirical antibiotics | inadequacy of the initial antimicrobial therapy | Inadequate empiric antibiotic therapy | inappropriate antibiotic therapy | inappropriateness of the empirically initiated antibiotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other microbiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathogen - Polymicrobial infection | Polymicrobial BSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E. coli | Genospecies 13TU | Genospecies 2 (A. baumannii) | Genospecies 3 | Mean extra staff time (minutes) used due to AMR - E coli infected patient | Number bacterial species isolated &gt;=3 | Pathogen - E. coli | Pseudomonas aeruginosa or Acinetobacter spp. | spa-CC - Other spa-CCs | spa-CC - singletons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aminoglycosides non-susceptible | Amoxicillin/clavulanic acid non-susceptible | Antibiotic susceptibility -  Cefuroxime | Antibiotic susceptibility -  Ciprofloxacin | Antibiotic susceptibility -  Gentamicin | Antibiotic susceptibility - Amoxicillin/clavlanate | Antibiotic susceptibility - Ceftazidime | Antibiotic susceptibility - Ceftriaxone | Antibiotic susceptibility - ESBL-Producers | Antibiotic susceptibility - Piperacillin | Antibiotic susceptibility - TMP/STX | Antibiotic susceptibility - Tobramicin | Enterobacteriaceae ESBL status - yes | ESBL - Treatment for underlying diseases - Chemotherapy (remission induction/re-induction) (I/RI) 
+ | ESBL - yes | ESBL identification â‰¤ 1 yr | ESBL producers | GN MDR - Breakthrough on a penicillin | Survival  probability over 180 days - patients with resistant infections | Survival time (days) of patients with BSI caused by carbapenem-resistant bacteria | time to discharge (over 60 days) -  patients with resistant infections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neonatal risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birthweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth weight (g) - &lt;1000 | Birthweight (g) - &gt;3000 | Birthweight (g) - 1500-3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeding type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to start enteral feeds (days) | Type of enteral feeds - Exclusive breast milk | Type of enteral feeds - Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestational age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concomitant diseases - Premature Yes | Gestation (weeks) - &gt;36 | Gestation (weeks) - 30-36 | Gestational age (weeks) - &lt;28 | Gestational age (weeks) - 28 to &lt;32 | Prematurity | Preterm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission to NICU | Adults | Age | Age (years) | Age at time of culture (years) | Age category - 40-49 | Age category - 50-59 | Age, year | Aminoglycoside-Tobramycin | Aminoglycosides-Gentamicin | Ampicillin R - Intensity of treatment (higher treatment intensity) | Ampicillin R  - Age above 5 years | Antacid use within 3 months | Antibiotic Exposure - Antifungals | Antibiotic Exposure - Beta-lactam-beta-lactamase inhibitors | Antibiotic Exposure - Carbapenem | Antibiotic Exposure - Cephalosporin | Antibiotic Exposure - Linezolid | Antibiotic Exposure - Vancomycin | Antibiotic Tx before KP isolation - antifungals | Antibiotic use - yes | Antibiotics-Cefazolin | Antibiotics-Cefepime | Antibiotics-Ceftazidime | Antibiotics-Ceftriaxone | Antimicrobial and antifungal agents exposure within 3 mo -  aminoglycosides | Antimicrobial and antifungal agents exposure within 3 mo - carbapenems | Any predisposing condition - yes | Aztreonam | B-lactam/b-lactamase inhibitor - piperacillin-taxobactam | Broad spectrum beta-lactams | Children &gt;5 years | Duration of time from hospital admission to positive
 blood culture (days) | Elderly | Empiric therapy - Others | ESBL - Disease status - incomplete remission | Exposure to antibiotics-Aminoglycosides | Exposure to antibiotics-Carbapenems | Exposure to antibiotics-Cephalosporin | Exposure to antibiotics-Colistin | Exposure to antibiotics-Exposure to any antibiotic | Exposure to antibiotics-Macrolides | Exposure to antibiotics-Penicillin | Exposure to antibiotics-Quinolones | Exposure to antibiotics-Vancomycin | History of department transfers | Institution -  Stroger (formerly Cook County) Hospital | Intravenous (IV) therapy â‰¤ 30 day | Invasive devices when admitted to hospital - 
 Type of devices - central vascular accesses | Invasive devices when admitted to hospital - 
 Type of devices - others | Invasive devices when admitted to hospital - 
@@ -422,147 +401,148 @@
 exposure | Qualitative indices of antibiotic usage - Aminoglycosides | Qualitative indices of antibiotic usage - At least 1 antibiotic used | Qualitative indices of antibiotic usage - At least 2 antibiotics used | Qualitative indices of antibiotic usage - At least 3 antibiotics used | Qualitative indices of antibiotic usage - b-lactam antibiotics | Qualitative indices of antibiotic usage - Fluoroquinolones | Qualitative indices of antibiotic usage - Penicillins | Risk factor - Intensive care unit | Serum creatine | Sulfonamides-Sulfame-thoxazole</t>
   </si>
   <si>
-    <t>Patient outcomes</t>
-  </si>
-  <si>
-    <t>Complications</t>
-  </si>
-  <si>
-    <t>Clinical outcomes - Disseminated intravascular coagulation | Clinical outcomes - Functional status deterioration | Concomitant diseases - DIC (disseminated intravascular coagulation) Yes | Outcome parameters - Discharged to long-term care facilities</t>
-  </si>
-  <si>
-    <t>Cure</t>
-  </si>
-  <si>
-    <t>3GCRE BSI vs 3GCSE BSI 3GC Discharge alive | ESBL - Disease status - complete remission</t>
-  </si>
-  <si>
-    <t>Current ICU stay</t>
-  </si>
-  <si>
-    <t>Admission to an ICU | Admitted to PICU | Admitted to the intensive care unit | Clinical characteristics-ICU stay (days) | Comorbid conditions - Directly admitted to ICU | Current condition - ICU stay | ESBL - ICU admission | ICU | Intensive care unit / medium care unit (ICU/MCU) &gt; 2 days | Intensive care unit admission | Invasive procedure or device - ICU admission | Patient in the PICU</t>
-  </si>
-  <si>
-    <t>Current hospitalisation duration</t>
-  </si>
-  <si>
-    <t>3GCRE BSI vs 3GCSE BSI 3GC All cause length of stay | 3GCRE BSI vs 3GCSE BSI 3GC Excess length of stay | Clinical outcomes - â‰¥ 10 days of hospital stay from culture to discharge | Hospitalization &gt; 5 days | Length of hospital stay - &lt; 14 | Length of hospital stay - 14-30 | Length of hospitalization, days | Length of stay in hospital | Risk factors - prolonged hospital stay (&gt; 14 days)</t>
-  </si>
-  <si>
-    <t>Mortality</t>
-  </si>
-  <si>
-    <t>28 day mortality rate = Overall | 30-day mortality | 3GCRE BSI vs 3GCSE BSI 3GC Mortality | 7-Day Mortality Rate - Enterobacteriaceae | 7-Day Mortality Rate - Enterobacteriaceae - K. pneumoniae | 7-Day Mortality Rate - Non-fermentative bacteria | 7-Day Mortality Rate - Total Gram-negative bacteria | Clinical outcomes - 30-day mortality | Clinical outcomes - 90-day mortality | Clinical outcomes - In-hospital mortality | Clinical outcomes - Mortality | Death (mortality) | In-hospital mortality | Outcome event - in-hospital mortality | Outcome parameters =- in-hospital mortality | Underlying condition - Crude mortality rate 30 days | Underlying condition - In-hospital mortality rate</t>
-  </si>
-  <si>
-    <t>Persistent bacteremia</t>
-  </si>
-  <si>
-    <t>Breakthrough bacteremia</t>
-  </si>
-  <si>
-    <t>Readmission</t>
-  </si>
-  <si>
-    <t>Infection-related hospital readmission after MRSA bacteremia | Infection-related hospital readmission
+    <t xml:space="preserve">Patient outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical outcomes - Disseminated intravascular coagulation | Clinical outcomes - Functional status deterioration | Concomitant diseases - DIC (disseminated intravascular coagulation) Yes | Outcome parameters - Discharged to long-term care facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3GCRE BSI vs 3GCSE BSI 3GC Discharge alive | ESBL - Disease status - complete remission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current ICU stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission to an ICU | Admitted to PICU | Admitted to the intensive care unit | Clinical characteristics-ICU stay (days) | Comorbid conditions - Directly admitted to ICU | Current condition - ICU stay | ESBL - ICU admission | ICU | Intensive care unit / medium care unit (ICU/MCU) &gt; 2 days | Intensive care unit admission | Invasive procedure or device - ICU admission | Patient in the PICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current hospitalisation duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3GCRE BSI vs 3GCSE BSI 3GC All cause length of stay | 3GCRE BSI vs 3GCSE BSI 3GC Excess length of stay | Clinical outcomes - â‰¥ 10 days of hospital stay from culture to discharge | Hospitalization &gt; 5 days | Length of hospital stay - &lt; 14 | Length of hospital stay - 14-30 | Length of hospitalization, days | Length of stay in hospital | Risk factors - prolonged hospital stay (&gt; 14 days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 day mortality rate = Overall | 30-day mortality | 3GCRE BSI vs 3GCSE BSI 3GC Mortality | 7-Day Mortality Rate - Enterobacteriaceae | 7-Day Mortality Rate - Enterobacteriaceae - K. pneumoniae | 7-Day Mortality Rate - Non-fermentative bacteria | 7-Day Mortality Rate - Total Gram-negative bacteria | Clinical outcomes - 30-day mortality | Clinical outcomes - 90-day mortality | Clinical outcomes - In-hospital mortality | Clinical outcomes - Mortality | Death (mortality) | In-hospital mortality | Outcome event - in-hospital mortality | Outcome parameters =- in-hospital mortality | Underlying condition - Crude mortality rate 30 days | Underlying condition - In-hospital mortality rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persistent bacteremia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampicillin R  - Meropenem breakthrough | Breakthrough bacteremia | Fluoroquinolone (FQ) breakthrough - Yes | VRE - vancomycin breakthrough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infection-related hospital readmission after MRSA bacteremia | Infection-related hospital readmission
 MRSA + age + male sex + Charlson index + diabetes + ethnic origin (Aboriginal and Torres Strait Islander)</t>
   </si>
   <si>
-    <t>Survival</t>
-  </si>
-  <si>
-    <t>30-day survival probability</t>
-  </si>
-  <si>
-    <t>Treatment failure</t>
-  </si>
-  <si>
-    <t>treatment failure | Worse outcome at all tested points (4, 7, 10, 12 and 15 days)</t>
-  </si>
-  <si>
-    <t>Primary site of infection</t>
-  </si>
-  <si>
-    <t>Catheter-related site</t>
-  </si>
-  <si>
-    <t>Source of bacteremia - Catheter-related | Source of infection - catheter</t>
-  </si>
-  <si>
-    <t>Intra-abdominal/hepatobiliary</t>
-  </si>
-  <si>
-    <t>Primary site of bacteremia - intra-abdominal infection | Sites of infection - Abcess | Source of bacteraemia - Biliary | Source of bacteraemia - Intra-abdominal | Source of infection - Biliary tract infection | Source of infection -Abscess | Source of infection -Diffuse peritonitis</t>
-  </si>
-  <si>
-    <t>Mixed/unspecified</t>
-  </si>
-  <si>
-    <t>Nonurinary focus of infection | Source of infection - other</t>
-  </si>
-  <si>
-    <t>Primary BSI</t>
-  </si>
-  <si>
-    <t>Infection source - Primary bacteremia</t>
-  </si>
-  <si>
-    <t>Respiratory tract/pulmonary</t>
-  </si>
-  <si>
-    <t>Bacteremia source - Lower respiratory tract | Combined infection site - Pulmonary infection | Concomitant diseases - Pneumonia Yes | Suspected diagnosis at admission - LRTI</t>
-  </si>
-  <si>
-    <t>Skin/soft tissue</t>
-  </si>
-  <si>
-    <t>Combined infection site - Perianal/Skin or soft tissue infections | Perianal infection - CRKP | Site of infection - Skin/Soft-tissue | Suspected diagnosis at admission - SSTI</t>
-  </si>
-  <si>
-    <t>Urinary tract</t>
-  </si>
-  <si>
-    <t>Source of infection - Urinary tract infection | Suspected diagnosis at admission - UTI</t>
-  </si>
-  <si>
-    <t>Prior colonization or infection</t>
-  </si>
-  <si>
-    <t>Prior colonization</t>
-  </si>
-  <si>
-    <t>Colonization three months previously | EPE in faecal screening culture | Healthcare-associated factors - Infection or
+    <t xml:space="preserve">Survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-day survival probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment failure | Worse outcome at all tested points (4, 7, 10, 12 and 15 days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary site of infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catheter-related site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source of bacteremia - Catheter-related | Source of infection - catheter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intra-abdominal/hepatobiliary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary site of bacteremia - intra-abdominal infection | Sites of infection - Abcess | Source of bacteraemia - Biliary | Source of bacteraemia - Intra-abdominal | Source of infection - Biliary tract infection | Source of infection -Abscess | Source of infection -Diffuse peritonitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed/unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonurinary focus of infection | Source of infection - other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary BSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infection source - Primary bacteremia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory tract/pulmonary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteremia source - Lower respiratory tract | Combined infection site - Pulmonary infection | Concomitant diseases - Pneumonia Yes | Suspected diagnosis at admission - LRTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin/soft tissue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combined infection site - Perianal/Skin or soft tissue infections | Perianal infection - CRKP | Site of infection - Skin/Soft-tissue | Suspected diagnosis at admission - SSTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urinary tract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source of infection - Urinary tract infection | Suspected diagnosis at admission - UTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior colonization or infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior colonization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colonization three months previously | EPE in faecal screening culture | Healthcare-associated factors - Infection or
 colonization of K.
 pneumoniae in
 previous 14 days | Positive ESBL-PE colonization of the mother | Positive ESBL-PE colonization of the neonate | Previous MDR bacteria culture-positive surveillance rectal swabs | Prior A. baumannii colonization</t>
   </si>
   <si>
-    <t>Prior colonization or infection (unspecified)</t>
-  </si>
-  <si>
-    <t>Any prior EPE-positive culture (cultures sampled &lt;8 days before blood cultures are not included) | EPE in prior clinical culture | Infection or colonization of K. pneumoniae in previous 14 days | Infection or colonization of K. pneumoniae in previous 28 days | Infection or colonization of K. pneumoniae in previous 84 days | Previous isolation of CTXNS-En (infection or colonization) | Previous isolation of fluoroquinolone-resistant Enterobacteriacea | Previous isolation of MDR bacteria | Prior infections/colonization with ESBLE - Within 365 days of bloodstream infection | Recent multi-drug resistant organism history (colonization or infection &lt;6 months) - Carbapenem-resistant Enterobacteriaceae | Recent multi-drug resistant organism history (colonization or infection &lt;6 months) - Extended-spectrum B-lactamase producer | Recent multi-drug resistant organism history (colonization or infection &lt;6 months) - Vancomycin-resistant Enterococcus species | Rectal swab test result positive for VRE</t>
-  </si>
-  <si>
-    <t>Prior infection</t>
-  </si>
-  <si>
-    <t>Bacteremia in last 3 mo | BSI history | Culture with cefepime or piperacillin-tazobactam resistance within 6 months | History of prior bacteremia | Number of prior gram negative bloodstream infections | Pre-existing medical conditions - Biliary tract infection | Previous episode of bacteremia | Previous KP infection within last 12 months | Previous MDRO infections | Prior biliary source bloodstream infection | Prior drug-resistant pathogen (DRP)</t>
-  </si>
-  <si>
-    <t>Prior immunosuppression treatment</t>
-  </si>
-  <si>
-    <t>Prior immunosuppression, cancer treatment/corticosteroid use</t>
-  </si>
-  <si>
-    <t>Antineoplasmic treatment | Comorbidities - Steroid use | ESBL - Treatment for underlying diseases - Chemotherapy (consolidation) | Immunosuppressive therapy - 1 month before onset of BSI | Preexisting medical conditions - Chemotherapy within previous 6 months | Steroid therapy (at least 10 mg/day prednisolone or equivalent for &gt;1 month)</t>
+    <t xml:space="preserve">Prior colonization or infection (unspecified)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any prior EPE-positive culture (cultures sampled &lt;8 days before blood cultures are not included) | EPE in prior clinical culture | Infection or colonization of K. pneumoniae in previous 14 days | Infection or colonization of K. pneumoniae in previous 28 days | Infection or colonization of K. pneumoniae in previous 84 days | Previous isolation of CTXNS-En (infection or colonization) | Previous isolation of fluoroquinolone-resistant Enterobacteriacea | Previous isolation of MDR bacteria | Prior infections/colonization with ESBLE - Within 365 days of bloodstream infection | Recent multi-drug resistant organism history (colonization or infection &lt;6 months) - Carbapenem-resistant Enterobacteriaceae | Recent multi-drug resistant organism history (colonization or infection &lt;6 months) - Extended-spectrum B-lactamase producer | Recent multi-drug resistant organism history (colonization or infection &lt;6 months) - Vancomycin-resistant Enterococcus species | Rectal swab test result positive for VRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteremia in last 3 mo | BSI history | Culture with cefepime or piperacillin-tazobactam resistance within 6 months | History of prior bacteremia | Number of prior gram negative bloodstream infections | Pre-existing medical conditions - Biliary tract infection | Previous episode of bacteremia | Previous KP infection within last 12 months | Previous MDRO infections | Prior biliary source bloodstream infection | Prior drug-resistant pathogen (DRP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior immunosuppression treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior immunosuppression, cancer treatment/corticosteroid use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antineoplasmic treatment | Comorbidities - Steroid use | ESBL - Treatment for underlying diseases - Chemotherapy (consolidation) | Immunosuppressive therapy - 1 month before onset of BSI | Preexisting medical conditions - Chemotherapy within previous 6 months | Steroid therapy (at least 10 mg/day prednisolone or equivalent for &gt;1 month)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -591,25 +571,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -891,19 +859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="119.54296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -917,1050 +880,1050 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>110</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>8</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23">
       <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>9</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>5</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>5</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28">
       <c r="A28" t="s">
         <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29">
       <c r="A29" t="s">
         <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30">
       <c r="A30" t="s">
         <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>6</v>
       </c>
       <c r="D30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31">
       <c r="A31" t="s">
         <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>2</v>
       </c>
       <c r="D31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32">
       <c r="A32" t="s">
         <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>3</v>
       </c>
       <c r="D32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33">
       <c r="A33" t="s">
         <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>4</v>
       </c>
       <c r="D33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34">
       <c r="A34" t="s">
         <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35">
       <c r="A35" t="s">
         <v>73</v>
       </c>
       <c r="B35" t="s">
         <v>78</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36">
       <c r="A36" t="s">
         <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>8</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37">
       <c r="A37" t="s">
         <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>82</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>12</v>
       </c>
       <c r="D37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38">
       <c r="A38" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>44</v>
       </c>
       <c r="D38" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39">
       <c r="A39" t="s">
         <v>86</v>
       </c>
       <c r="B39" t="s">
         <v>87</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40">
       <c r="A40" t="s">
         <v>86</v>
       </c>
       <c r="B40" t="s">
         <v>89</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>3</v>
       </c>
       <c r="D40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41">
       <c r="A41" t="s">
         <v>86</v>
       </c>
       <c r="B41" t="s">
         <v>91</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>40</v>
       </c>
       <c r="D41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42">
       <c r="A42" t="s">
         <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>93</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>18</v>
       </c>
       <c r="D42" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>95</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44">
       <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>97</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45">
       <c r="A45" t="s">
         <v>86</v>
       </c>
       <c r="B45" t="s">
         <v>99</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>17</v>
       </c>
       <c r="D45" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46">
       <c r="A46" t="s">
         <v>86</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>11</v>
       </c>
       <c r="D46" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47">
       <c r="A47" t="s">
         <v>86</v>
       </c>
       <c r="B47" t="s">
         <v>103</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>24</v>
       </c>
       <c r="D47" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48">
       <c r="A48" t="s">
         <v>105</v>
       </c>
       <c r="B48" t="s">
         <v>106</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>5</v>
       </c>
       <c r="D48" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49">
       <c r="A49" t="s">
         <v>105</v>
       </c>
       <c r="B49" t="s">
         <v>108</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>6</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50">
       <c r="A50" t="s">
         <v>105</v>
       </c>
       <c r="B50" t="s">
         <v>110</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>2</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51">
       <c r="A51" t="s">
         <v>105</v>
       </c>
       <c r="B51" t="s">
         <v>112</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>10</v>
       </c>
       <c r="D51" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52">
       <c r="A52" t="s">
         <v>105</v>
       </c>
       <c r="B52" t="s">
         <v>114</v>
       </c>
-      <c r="C52">
-        <v>24</v>
+      <c r="C52" t="n">
+        <v>21</v>
       </c>
       <c r="D52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53">
       <c r="A53" t="s">
         <v>116</v>
       </c>
       <c r="B53" t="s">
         <v>117</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>3</v>
       </c>
       <c r="D53" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54">
       <c r="A54" t="s">
         <v>116</v>
       </c>
       <c r="B54" t="s">
         <v>119</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>3</v>
       </c>
       <c r="D54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55">
       <c r="A55" t="s">
         <v>116</v>
       </c>
       <c r="B55" t="s">
         <v>121</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>7</v>
       </c>
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56">
       <c r="A56" t="s">
         <v>123</v>
       </c>
       <c r="B56" t="s">
         <v>123</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>71</v>
       </c>
       <c r="D56" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57">
       <c r="A57" t="s">
         <v>125</v>
       </c>
       <c r="B57" t="s">
         <v>126</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58">
       <c r="A58" t="s">
         <v>125</v>
       </c>
       <c r="B58" t="s">
         <v>128</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59">
       <c r="A59" t="s">
         <v>125</v>
       </c>
       <c r="B59" t="s">
         <v>130</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>12</v>
       </c>
       <c r="D59" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60">
       <c r="A60" t="s">
         <v>125</v>
       </c>
       <c r="B60" t="s">
         <v>132</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>9</v>
       </c>
       <c r="D60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61">
       <c r="A61" t="s">
         <v>125</v>
       </c>
       <c r="B61" t="s">
         <v>134</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>17</v>
       </c>
       <c r="D61" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62">
       <c r="A62" t="s">
         <v>125</v>
       </c>
       <c r="B62" t="s">
         <v>136</v>
       </c>
-      <c r="C62">
-        <v>1</v>
+      <c r="C62" t="n">
+        <v>4</v>
       </c>
       <c r="D62" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63">
       <c r="A63" t="s">
         <v>125</v>
       </c>
       <c r="B63" t="s">
         <v>138</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64">
       <c r="A64" t="s">
         <v>125</v>
       </c>
       <c r="B64" t="s">
         <v>140</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65">
       <c r="A65" t="s">
         <v>125</v>
       </c>
       <c r="B65" t="s">
         <v>142</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66">
       <c r="A66" t="s">
         <v>144</v>
       </c>
       <c r="B66" t="s">
         <v>145</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67">
       <c r="A67" t="s">
         <v>144</v>
       </c>
       <c r="B67" t="s">
         <v>147</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>7</v>
       </c>
       <c r="D67" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68">
       <c r="A68" t="s">
         <v>144</v>
       </c>
       <c r="B68" t="s">
         <v>149</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>2</v>
       </c>
       <c r="D68" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69">
       <c r="A69" t="s">
         <v>144</v>
       </c>
       <c r="B69" t="s">
         <v>151</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70">
       <c r="A70" t="s">
         <v>144</v>
       </c>
       <c r="B70" t="s">
         <v>153</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71">
       <c r="A71" t="s">
         <v>144</v>
       </c>
       <c r="B71" t="s">
         <v>155</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
       <c r="B72" t="s">
         <v>157</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73">
       <c r="A73" t="s">
         <v>159</v>
       </c>
       <c r="B73" t="s">
         <v>160</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>7</v>
       </c>
       <c r="D73" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74">
       <c r="A74" t="s">
         <v>159</v>
       </c>
       <c r="B74" t="s">
         <v>162</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>13</v>
       </c>
       <c r="D74" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75">
       <c r="A75" t="s">
         <v>159</v>
       </c>
       <c r="B75" t="s">
         <v>164</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>11</v>
       </c>
       <c r="D75" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76">
       <c r="A76" t="s">
         <v>166</v>
       </c>
       <c r="B76" t="s">
         <v>167</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>6</v>
       </c>
       <c r="D76" t="s">
@@ -1969,6 +1932,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>